--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\fire extinguisher project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Repos\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF5849-E1CE-4EF7-B89A-0FE0E5CD3382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59262162-5409-4B6B-AFCF-E62FD78814ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
         <v>45772</v>
       </c>
       <c r="D7" s="3">
-        <v>45787</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Repos\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59262162-5409-4B6B-AFCF-E62FD78814ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE15E3-CBB8-42F8-AE18-81A3C3F6659F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +536,7 @@
         <v>45762</v>
       </c>
       <c r="D2" s="3">
-        <v>45790</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>45765</v>
       </c>
       <c r="D3" s="3">
-        <v>45792</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>45769</v>
       </c>
       <c r="D4" s="3">
-        <v>45791</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>45757</v>
       </c>
       <c r="D5" s="3">
-        <v>45793</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>45767</v>
       </c>
       <c r="D6" s="3">
-        <v>45813</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>45772</v>
       </c>
       <c r="D7" s="3">
-        <v>45797</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>45775</v>
       </c>
       <c r="D8" s="3">
-        <v>45816</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>45776</v>
       </c>
       <c r="D9" s="3">
-        <v>45817</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Repos\Automated-Alert\Automated Alert Full Cloud Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\auto email\Cloud-Auto-Alert-Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE15E3-CBB8-42F8-AE18-81A3C3F6659F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3153685-65BE-4C30-8F89-E661DBC0B10B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
         <v>45765</v>
       </c>
       <c r="D3" s="3">
-        <v>45802</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>45769</v>
       </c>
       <c r="D4" s="3">
-        <v>45801</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>45757</v>
       </c>
       <c r="D5" s="3">
-        <v>45800</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>45767</v>
       </c>
       <c r="D6" s="3">
-        <v>45830</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>45772</v>
       </c>
       <c r="D7" s="3">
-        <v>45798</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>45775</v>
       </c>
       <c r="D8" s="3">
-        <v>45834</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\auto email\Cloud-Auto-Alert-Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3153685-65BE-4C30-8F89-E661DBC0B10B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F987CDF-9C06-4C32-8FA9-AECBF7FDA4FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>45775</v>
       </c>
       <c r="D8" s="3">
-        <v>45835</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>45776</v>
       </c>
       <c r="D9" s="3">
-        <v>45835</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F987CDF-9C06-4C32-8FA9-AECBF7FDA4FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B7A29-0308-4FAF-A286-C04D8A47890A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
         <v>45776</v>
       </c>
       <c r="D9" s="3">
-        <v>45834</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>45778</v>
       </c>
       <c r="D10" s="3">
-        <v>45818</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B7A29-0308-4FAF-A286-C04D8A47890A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49221C45-A20E-410F-9353-40A389870CD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96E7CA-B025-4DCF-AE1A-825BF717B50A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
         <v>45765</v>
       </c>
       <c r="D3" s="3">
-        <v>45804</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49221C45-A20E-410F-9353-40A389870CD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C982ED4E-1A86-4049-97A6-87F6DCC43240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
         <v>45765</v>
       </c>
       <c r="D3" s="3">
-        <v>45805</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>45769</v>
       </c>
       <c r="D4" s="3">
-        <v>45805</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>45772</v>
       </c>
       <c r="D7" s="3">
-        <v>45805</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
+++ b/Automated Alert Full Cloud Version/fire extinguisher data excel f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Automated-Alert\Automated Alert Full Cloud Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C982ED4E-1A86-4049-97A6-87F6DCC43240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B16EB-A26E-44C8-ADA3-65EFCD125C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{2B3651D7-ACB5-4F22-B3CD-6238BCB3B001}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$19</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Fire_eID</t>
   </si>
@@ -106,6 +106,90 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>FE011</t>
+  </si>
+  <si>
+    <t>FE012</t>
+  </si>
+  <si>
+    <t>FE013</t>
+  </si>
+  <si>
+    <t>FE014</t>
+  </si>
+  <si>
+    <t>FE015</t>
+  </si>
+  <si>
+    <t>FE016</t>
+  </si>
+  <si>
+    <t>FE017</t>
+  </si>
+  <si>
+    <t>FE018</t>
+  </si>
+  <si>
+    <t>FE019</t>
+  </si>
+  <si>
+    <t>FE020</t>
+  </si>
+  <si>
+    <t>main store</t>
+  </si>
+  <si>
+    <t>Demin Plant</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Mechanical Wkshop</t>
+  </si>
+  <si>
+    <t>Chemistry Lab</t>
+  </si>
+  <si>
+    <t>Control Room</t>
+  </si>
+  <si>
+    <t>HR Office</t>
+  </si>
+  <si>
+    <t>C-Suites</t>
+  </si>
+  <si>
+    <t>2nd Floor Mech</t>
+  </si>
+  <si>
+    <t>2nd Floor Elect</t>
+  </si>
+  <si>
+    <t>FE021</t>
+  </si>
+  <si>
+    <t>FE022</t>
+  </si>
+  <si>
+    <t>FE023</t>
+  </si>
+  <si>
+    <t>FE024</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Procument</t>
+  </si>
+  <si>
+    <t>2nd Floor I&amp;C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Service </t>
   </si>
 </sst>
 </file>
@@ -188,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD81989C-1E51-4C51-A08A-BD46893769E4}" name="fire_extinguisher_data" displayName="fire_extinguisher_data" ref="A1:D19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{C83B7B36-D825-4905-A30B-D7117A1694E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD81989C-1E51-4C51-A08A-BD46893769E4}" name="fire_extinguisher_data" displayName="fire_extinguisher_data" ref="A1:D25" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D25" xr:uid="{C83B7B36-D825-4905-A30B-D7117A1694E8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3AD9D5C5-CCC8-49C4-BBD3-A158C2D8B016}" uniqueName="1" name="Fire_eID" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{E308A029-01A4-446E-B59F-2E2AF43C3F2D}" uniqueName="2" name="location" queryTableFieldId="2"/>
@@ -497,16 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96E7CA-B025-4DCF-AE1A-825BF717B50A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.21875" style="2" customWidth="1"/>
   </cols>
@@ -663,6 +747,202 @@
       </c>
       <c r="D11" s="3">
         <v>45795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45760</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45761</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45762</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45763</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45764</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45765</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45766</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45767</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45768</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45769</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45766</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45767</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45768</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45769</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45811</v>
       </c>
     </row>
   </sheetData>
